--- a/public/instructivo/Instructivo_Carga_Data_Bachilleres.xlsx
+++ b/public/instructivo/Instructivo_Carga_Data_Bachilleres.xlsx
@@ -407,12 +407,6 @@
 El código del Estado CIvil no corresponde a los valores posibles de ser consignados (1: Soltero (a), 2: Casado (a), 3: Viudo (a), ó 4: Divorsiado (a)). Corrija la Columna L, Fila n</t>
   </si>
   <si>
-    <t>Indicador si el Bachiller sufre o no discapacidad. Valores:
-1: Si
-2: No
-Vacío: No</t>
-  </si>
-  <si>
     <t>Error en la Columna SUFRE DISCAPACIDAD:
 El código de Condición de Discapacidad no corresponde a los valores posibles de ser consignados. Consigne 1 para SI o 0 para NO. Corrija la Columna M, Fila n</t>
   </si>
@@ -565,6 +559,12 @@
   <si>
     <t>Error en la Columna IDIOMA:
 El código del Idioma no corresponde a los valores posibles de ser consignados (1: Inglés, 2: Italiano, 3: Francés, 4: Alemán, 5: Quechua, 6: Portugués). Corrija la Columna P, Fila n</t>
+  </si>
+  <si>
+    <t>Indicador si el Bachiller sufre o no discapacidad. Valores:
+1: Si
+0: No
+Vacío: No</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1115,7 @@
   <dimension ref="A2:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1271,7 +1271,7 @@
         <v>100</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>24</v>
@@ -1530,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>38</v>
@@ -1548,7 +1548,7 @@
         <v>48</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.35">
@@ -1559,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>63</v>
@@ -1577,7 +1577,7 @@
         <v>49</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1585,10 +1585,10 @@
         <v>15</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>121</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>122</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>24</v>
@@ -1606,7 +1606,7 @@
         <v>47</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="106.5" x14ac:dyDescent="0.35">
@@ -1614,10 +1614,10 @@
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>124</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>24</v>
@@ -1626,7 +1626,7 @@
         <v>26</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G23" s="16">
         <v>1</v>
@@ -1635,7 +1635,7 @@
         <v>58</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1643,10 +1643,10 @@
         <v>17</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>126</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>127</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>24</v>
@@ -1658,13 +1658,13 @@
         <v>65</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>61</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1672,10 +1672,10 @@
         <v>18</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>24</v>
@@ -1687,13 +1687,13 @@
         <v>65</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H25" s="16" t="s">
         <v>52</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1701,10 +1701,10 @@
         <v>19</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>133</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>134</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>24</v>
@@ -1722,7 +1722,7 @@
         <v>54</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1730,10 +1730,10 @@
         <v>20</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>24</v>
@@ -1745,13 +1745,13 @@
         <v>65</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H27" s="16" t="s">
         <v>67</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1759,10 +1759,10 @@
         <v>21</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>141</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>142</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>24</v>
@@ -1774,13 +1774,13 @@
         <v>65</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H28" s="16" t="s">
         <v>55</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1788,10 +1788,10 @@
         <v>22</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>146</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>147</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>24</v>
@@ -1809,7 +1809,7 @@
         <v>71</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1838,7 +1838,7 @@
         <v>74</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1867,7 +1867,7 @@
         <v>78</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1896,7 +1896,7 @@
         <v>79</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1925,7 +1925,7 @@
         <v>80</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1933,10 +1933,10 @@
         <v>27</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>24</v>
@@ -1954,7 +1954,7 @@
         <v>81</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -1962,10 +1962,10 @@
         <v>28</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>155</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>24</v>
@@ -1983,7 +1983,7 @@
         <v>82</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1994,7 +1994,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>21</v>
